--- a/Code/Results/Cases/Case_3_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_151/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.048530420565882</v>
+        <v>1.074117753921424</v>
       </c>
       <c r="D2">
-        <v>1.060944674439134</v>
+        <v>1.075303122240978</v>
       </c>
       <c r="E2">
-        <v>1.057218091867588</v>
+        <v>1.077924277549771</v>
       </c>
       <c r="F2">
-        <v>1.066847269225664</v>
+        <v>1.088132690176628</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.071762400993945</v>
+        <v>1.061025189854597</v>
       </c>
       <c r="J2">
-        <v>1.069350524095707</v>
+        <v>1.079028844005987</v>
       </c>
       <c r="K2">
-        <v>1.071615556231291</v>
+        <v>1.077990048447023</v>
       </c>
       <c r="L2">
-        <v>1.067933942181708</v>
+        <v>1.080604299558871</v>
       </c>
       <c r="M2">
-        <v>1.077447721283709</v>
+        <v>1.090786165081943</v>
       </c>
       <c r="N2">
-        <v>1.070869124496142</v>
+        <v>1.080561188730813</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.054616827167722</v>
+        <v>1.075356250915761</v>
       </c>
       <c r="D3">
-        <v>1.065757293640184</v>
+        <v>1.076293566355411</v>
       </c>
       <c r="E3">
-        <v>1.062437640626976</v>
+        <v>1.079025526235562</v>
       </c>
       <c r="F3">
-        <v>1.072329628770792</v>
+        <v>1.089297827551951</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.074316767173415</v>
+        <v>1.061461218559055</v>
       </c>
       <c r="J3">
-        <v>1.073721751250774</v>
+        <v>1.079924930762111</v>
       </c>
       <c r="K3">
-        <v>1.075612644495035</v>
+        <v>1.078797357228423</v>
       </c>
       <c r="L3">
-        <v>1.07232940697106</v>
+        <v>1.081522641821931</v>
       </c>
       <c r="M3">
-        <v>1.082113698641957</v>
+        <v>1.091770165641073</v>
       </c>
       <c r="N3">
-        <v>1.075246559295156</v>
+        <v>1.081458548032914</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.058458649345159</v>
+        <v>1.076157370759789</v>
       </c>
       <c r="D4">
-        <v>1.068797417490977</v>
+        <v>1.076934149521629</v>
       </c>
       <c r="E4">
-        <v>1.065736779253468</v>
+        <v>1.079738037495748</v>
       </c>
       <c r="F4">
-        <v>1.07579598888596</v>
+        <v>1.090051840923812</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.075918236479241</v>
+        <v>1.061741916479581</v>
       </c>
       <c r="J4">
-        <v>1.07647661879025</v>
+        <v>1.080503925560297</v>
       </c>
       <c r="K4">
-        <v>1.07813080121948</v>
+        <v>1.079318820725571</v>
       </c>
       <c r="L4">
-        <v>1.075101634388889</v>
+        <v>1.082116202893224</v>
       </c>
       <c r="M4">
-        <v>1.085058227932669</v>
+        <v>1.092406383857647</v>
       </c>
       <c r="N4">
-        <v>1.078005339062527</v>
+        <v>1.082038365070125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.060051690045556</v>
+        <v>1.076494098824472</v>
       </c>
       <c r="D5">
-        <v>1.070058525329418</v>
+        <v>1.077203379757478</v>
       </c>
       <c r="E5">
-        <v>1.067105812489147</v>
+        <v>1.080037561626271</v>
       </c>
       <c r="F5">
-        <v>1.07723468083005</v>
+        <v>1.090368851336053</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.076579646209417</v>
+        <v>1.061859577408084</v>
       </c>
       <c r="J5">
-        <v>1.077617869104062</v>
+        <v>1.080747136733662</v>
       </c>
       <c r="K5">
-        <v>1.079173759180823</v>
+        <v>1.079537824943205</v>
       </c>
       <c r="L5">
-        <v>1.076250570537778</v>
+        <v>1.082365577272592</v>
       </c>
       <c r="M5">
-        <v>1.086278978928557</v>
+        <v>1.09267373244588</v>
       </c>
       <c r="N5">
-        <v>1.079148210082687</v>
+        <v>1.082281921631253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.060317903852045</v>
+        <v>1.076550633329947</v>
       </c>
       <c r="D6">
-        <v>1.070269297163483</v>
+        <v>1.077248580568317</v>
       </c>
       <c r="E6">
-        <v>1.067334650705437</v>
+        <v>1.08008785216629</v>
       </c>
       <c r="F6">
-        <v>1.077475178494385</v>
+        <v>1.090422080175919</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.076690017638304</v>
+        <v>1.061879313015596</v>
       </c>
       <c r="J6">
-        <v>1.077808519515769</v>
+        <v>1.080787961371102</v>
       </c>
       <c r="K6">
-        <v>1.079347975583669</v>
+        <v>1.079574583900776</v>
       </c>
       <c r="L6">
-        <v>1.076442533797837</v>
+        <v>1.082407439056352</v>
       </c>
       <c r="M6">
-        <v>1.086482964776659</v>
+        <v>1.092718614591351</v>
       </c>
       <c r="N6">
-        <v>1.079339131239846</v>
+        <v>1.08232280424436</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.058480020994297</v>
+        <v>1.076161870380542</v>
       </c>
       <c r="D7">
-        <v>1.068814334164199</v>
+        <v>1.076937747266675</v>
       </c>
       <c r="E7">
-        <v>1.065755141738942</v>
+        <v>1.07974203981162</v>
       </c>
       <c r="F7">
-        <v>1.075815284626218</v>
+        <v>1.090056076739746</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07592712024615</v>
+        <v>1.06174349002336</v>
       </c>
       <c r="J7">
-        <v>1.076491933695633</v>
+        <v>1.080507176137293</v>
       </c>
       <c r="K7">
-        <v>1.078144798026555</v>
+        <v>1.079321747930014</v>
       </c>
       <c r="L7">
-        <v>1.075117050486366</v>
+        <v>1.082119535667981</v>
       </c>
       <c r="M7">
-        <v>1.085074606018982</v>
+        <v>1.092409956642984</v>
       </c>
       <c r="N7">
-        <v>1.078020675716832</v>
+        <v>1.082041620263313</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.050607976144505</v>
+        <v>1.074536367025702</v>
       </c>
       <c r="D8">
-        <v>1.062586900845145</v>
+        <v>1.075637910264264</v>
       </c>
       <c r="E8">
-        <v>1.058998771366158</v>
+        <v>1.078296464986147</v>
       </c>
       <c r="F8">
-        <v>1.068717377078479</v>
+        <v>1.088526435608233</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.072636580164216</v>
+        <v>1.061172846750539</v>
       </c>
       <c r="J8">
-        <v>1.070843494167691</v>
+        <v>1.079331853999309</v>
       </c>
       <c r="K8">
-        <v>1.072980927770014</v>
+        <v>1.078263073195009</v>
       </c>
       <c r="L8">
-        <v>1.069434747770913</v>
+        <v>1.08091479660095</v>
       </c>
       <c r="M8">
-        <v>1.079040536255875</v>
+        <v>1.091118816076781</v>
       </c>
       <c r="N8">
-        <v>1.072364214756874</v>
+        <v>1.080864629033082</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.035946996424759</v>
+        <v>1.071669858693972</v>
       </c>
       <c r="D9">
-        <v>1.051010729163914</v>
+        <v>1.073345085876739</v>
       </c>
       <c r="E9">
-        <v>1.04645454105426</v>
+        <v>1.075748584162104</v>
       </c>
       <c r="F9">
-        <v>1.055547793554326</v>
+        <v>1.085831656811966</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066422833196488</v>
+        <v>1.060156226598859</v>
       </c>
       <c r="J9">
-        <v>1.060291248383695</v>
+        <v>1.077254348583314</v>
       </c>
       <c r="K9">
-        <v>1.063327063794265</v>
+        <v>1.076390465776289</v>
       </c>
       <c r="L9">
-        <v>1.058836349011036</v>
+        <v>1.078786725230455</v>
       </c>
       <c r="M9">
-        <v>1.067799639725953</v>
+        <v>1.08883980994373</v>
       </c>
       <c r="N9">
-        <v>1.061796983573506</v>
+        <v>1.078784173321103</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.025565228483164</v>
+        <v>1.069757267812235</v>
       </c>
       <c r="D10">
-        <v>1.042833014100371</v>
+        <v>1.071814894170073</v>
       </c>
       <c r="E10">
-        <v>1.037602517362905</v>
+        <v>1.074049518608715</v>
       </c>
       <c r="F10">
-        <v>1.046260298566751</v>
+        <v>1.084035488413407</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0619676332449</v>
+        <v>1.059470989369555</v>
       </c>
       <c r="J10">
-        <v>1.052800003907262</v>
+        <v>1.075864936357153</v>
       </c>
       <c r="K10">
-        <v>1.056469698415131</v>
+        <v>1.075137228270776</v>
       </c>
       <c r="L10">
-        <v>1.051324489439754</v>
+        <v>1.077364460854618</v>
       </c>
       <c r="M10">
-        <v>1.059841691280441</v>
+        <v>1.087317806349881</v>
       </c>
       <c r="N10">
-        <v>1.054295100670659</v>
+        <v>1.077392787970213</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.020906304990188</v>
+        <v>1.068928689085396</v>
       </c>
       <c r="D11">
-        <v>1.039169018243165</v>
+        <v>1.071151899492413</v>
       </c>
       <c r="E11">
-        <v>1.033638489438407</v>
+        <v>1.073313672547751</v>
       </c>
       <c r="F11">
-        <v>1.042102613693609</v>
+        <v>1.083257791717844</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059955939501705</v>
+        <v>1.059172486978762</v>
       </c>
       <c r="J11">
-        <v>1.049434497921871</v>
+        <v>1.075262241312739</v>
       </c>
       <c r="K11">
-        <v>1.053388228766911</v>
+        <v>1.074593400700009</v>
       </c>
       <c r="L11">
-        <v>1.047952742056024</v>
+        <v>1.076747745038367</v>
       </c>
       <c r="M11">
-        <v>1.056271938882051</v>
+        <v>1.086658111817526</v>
       </c>
       <c r="N11">
-        <v>1.050924815280739</v>
+        <v>1.076789237029707</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.019149363346881</v>
+        <v>1.06862085315885</v>
       </c>
       <c r="D12">
-        <v>1.037788262995635</v>
+        <v>1.070905570499332</v>
       </c>
       <c r="E12">
-        <v>1.032144966666133</v>
+        <v>1.073040323915549</v>
       </c>
       <c r="F12">
-        <v>1.040536327444673</v>
+        <v>1.082968927212298</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059195508537218</v>
+        <v>1.059061339978127</v>
       </c>
       <c r="J12">
-        <v>1.048164831256299</v>
+        <v>1.075038211033826</v>
       </c>
       <c r="K12">
-        <v>1.052225623337885</v>
+        <v>1.074391222086414</v>
       </c>
       <c r="L12">
-        <v>1.046681187492557</v>
+        <v>1.076518537615505</v>
       </c>
       <c r="M12">
-        <v>1.054926048788524</v>
+        <v>1.086412971568899</v>
       </c>
       <c r="N12">
-        <v>1.049653345542869</v>
+        <v>1.0765648886021</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.019527459913426</v>
+        <v>1.068686887989428</v>
       </c>
       <c r="D13">
-        <v>1.038085357296468</v>
+        <v>1.070958411789515</v>
       </c>
       <c r="E13">
-        <v>1.03246631174678</v>
+        <v>1.073098959176802</v>
       </c>
       <c r="F13">
-        <v>1.040873319242585</v>
+        <v>1.083030889355448</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059359234406232</v>
+        <v>1.059085193617219</v>
       </c>
       <c r="J13">
-        <v>1.04843808641047</v>
+        <v>1.075086273670011</v>
       </c>
       <c r="K13">
-        <v>1.052475840939272</v>
+        <v>1.07443459811091</v>
       </c>
       <c r="L13">
-        <v>1.046954827659419</v>
+        <v>1.076567709371776</v>
       </c>
       <c r="M13">
-        <v>1.055215670840772</v>
+        <v>1.086465559550569</v>
       </c>
       <c r="N13">
-        <v>1.049926988750703</v>
+        <v>1.076613019492741</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.020761625677727</v>
+        <v>1.0689032446109</v>
       </c>
       <c r="D14">
-        <v>1.039055296168321</v>
+        <v>1.071131539159487</v>
       </c>
       <c r="E14">
-        <v>1.033515473628358</v>
+        <v>1.073291077936202</v>
       </c>
       <c r="F14">
-        <v>1.041973600576287</v>
+        <v>1.08323391396169</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05989335614753</v>
+        <v>1.059163305044967</v>
       </c>
       <c r="J14">
-        <v>1.049329953879621</v>
+        <v>1.075243726224833</v>
       </c>
       <c r="K14">
-        <v>1.053292501925331</v>
+        <v>1.074576692168569</v>
       </c>
       <c r="L14">
-        <v>1.047848033010888</v>
+        <v>1.076728801377441</v>
       </c>
       <c r="M14">
-        <v>1.056161101671367</v>
+        <v>1.086637850504167</v>
       </c>
       <c r="N14">
-        <v>1.050820122773958</v>
+        <v>1.076770695648251</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.021518478287876</v>
+        <v>1.069036540387281</v>
       </c>
       <c r="D15">
-        <v>1.039650244757596</v>
+        <v>1.071238200222387</v>
       </c>
       <c r="E15">
-        <v>1.034159055363736</v>
+        <v>1.073409445593782</v>
       </c>
       <c r="F15">
-        <v>1.042648566566622</v>
+        <v>1.083359004954217</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060220672219149</v>
+        <v>1.059211396277241</v>
       </c>
       <c r="J15">
-        <v>1.049876829645563</v>
+        <v>1.075340716356384</v>
       </c>
       <c r="K15">
-        <v>1.053793250699357</v>
+        <v>1.074664217531003</v>
       </c>
       <c r="L15">
-        <v>1.048395790990958</v>
+        <v>1.076828037977877</v>
       </c>
       <c r="M15">
-        <v>1.056740931242706</v>
+        <v>1.086743991303972</v>
       </c>
       <c r="N15">
-        <v>1.051367775166215</v>
+        <v>1.076867823516914</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.025870827209983</v>
+        <v>1.069812248898844</v>
       </c>
       <c r="D16">
-        <v>1.043073481474365</v>
+        <v>1.071858886151214</v>
       </c>
       <c r="E16">
-        <v>1.037862717871843</v>
+        <v>1.074098351205928</v>
       </c>
       <c r="F16">
-        <v>1.046533238678022</v>
+        <v>1.084087102613918</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.062099337151311</v>
+        <v>1.059490762190796</v>
       </c>
       <c r="J16">
-        <v>1.053020690161235</v>
+        <v>1.075904912546291</v>
       </c>
       <c r="K16">
-        <v>1.056671745625219</v>
+        <v>1.075173295595514</v>
       </c>
       <c r="L16">
-        <v>1.051545648721088</v>
+        <v>1.077405371870239</v>
       </c>
       <c r="M16">
-        <v>1.060075884443778</v>
+        <v>1.087361574123501</v>
       </c>
       <c r="N16">
-        <v>1.054516100324425</v>
+        <v>1.077432820930125</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.028555911063001</v>
+        <v>1.070298717570813</v>
       </c>
       <c r="D17">
-        <v>1.045186975267912</v>
+        <v>1.072248114847942</v>
       </c>
       <c r="E17">
-        <v>1.040149883520618</v>
+        <v>1.074530444965653</v>
       </c>
       <c r="F17">
-        <v>1.048932538661923</v>
+        <v>1.084543832817319</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.063255132265025</v>
+        <v>1.059665521087581</v>
       </c>
       <c r="J17">
-        <v>1.054959291823075</v>
+        <v>1.076258530144972</v>
       </c>
       <c r="K17">
-        <v>1.058446532210528</v>
+        <v>1.075492313235667</v>
       </c>
       <c r="L17">
-        <v>1.053488749245206</v>
+        <v>1.077767285191132</v>
       </c>
       <c r="M17">
-        <v>1.062133752743606</v>
+        <v>1.087748790480335</v>
       </c>
       <c r="N17">
-        <v>1.056457455022986</v>
+        <v>1.077786940706356</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.030106428212928</v>
+        <v>1.07058242672819</v>
       </c>
       <c r="D18">
-        <v>1.046407968087943</v>
+        <v>1.07247510574791</v>
       </c>
       <c r="E18">
-        <v>1.041471407452206</v>
+        <v>1.074782464604428</v>
       </c>
       <c r="F18">
-        <v>1.050318981777636</v>
+        <v>1.084810241347708</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.063921379401519</v>
+        <v>1.059767282338338</v>
       </c>
       <c r="J18">
-        <v>1.056078390952897</v>
+        <v>1.076464686146669</v>
       </c>
       <c r="K18">
-        <v>1.059470994644511</v>
+        <v>1.0756782782833</v>
       </c>
       <c r="L18">
-        <v>1.054610729566177</v>
+        <v>1.077978299665804</v>
       </c>
       <c r="M18">
-        <v>1.063322211947252</v>
+        <v>1.087974583956989</v>
       </c>
       <c r="N18">
-        <v>1.057578143401935</v>
+        <v>1.077993389473222</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.03063251346581</v>
+        <v>1.070679157550191</v>
       </c>
       <c r="D19">
-        <v>1.04682233595882</v>
+        <v>1.072552497101995</v>
       </c>
       <c r="E19">
-        <v>1.041919926683959</v>
+        <v>1.074868394576199</v>
       </c>
       <c r="F19">
-        <v>1.050789556071493</v>
+        <v>1.084901080762337</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.06414723392059</v>
+        <v>1.059801951038621</v>
       </c>
       <c r="J19">
-        <v>1.056458034845694</v>
+        <v>1.076534962568546</v>
       </c>
       <c r="K19">
-        <v>1.059818521401938</v>
+        <v>1.075741668512472</v>
       </c>
       <c r="L19">
-        <v>1.054991398706696</v>
+        <v>1.07805023604353</v>
       </c>
       <c r="M19">
-        <v>1.063725471821796</v>
+        <v>1.088051563014097</v>
       </c>
       <c r="N19">
-        <v>1.057958326432606</v>
+        <v>1.07806376569568</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.028269458118457</v>
+        <v>1.07024652822218</v>
       </c>
       <c r="D20">
-        <v>1.044961444099772</v>
+        <v>1.072206358401008</v>
       </c>
       <c r="E20">
-        <v>1.039905799299264</v>
+        <v>1.074484086787677</v>
       </c>
       <c r="F20">
-        <v>1.04867647429908</v>
+        <v>1.084494829430682</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.063131949909728</v>
+        <v>1.059646788978177</v>
       </c>
       <c r="J20">
-        <v>1.054752512520139</v>
+        <v>1.07622060100682</v>
       </c>
       <c r="K20">
-        <v>1.05825723335465</v>
+        <v>1.075458097314319</v>
       </c>
       <c r="L20">
-        <v>1.053281460480717</v>
+        <v>1.077728463960315</v>
       </c>
       <c r="M20">
-        <v>1.061914198809476</v>
+        <v>1.087707252387217</v>
       </c>
       <c r="N20">
-        <v>1.056250382069722</v>
+        <v>1.077748957704478</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.020398939343143</v>
+        <v>1.068839534791209</v>
       </c>
       <c r="D21">
-        <v>1.038770230599273</v>
+        <v>1.07108055922152</v>
       </c>
       <c r="E21">
-        <v>1.033207116317498</v>
+        <v>1.073234504388594</v>
       </c>
       <c r="F21">
-        <v>1.041650213346178</v>
+        <v>1.083174128105247</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.059736441709265</v>
+        <v>1.05914031063535</v>
       </c>
       <c r="J21">
-        <v>1.049067872182899</v>
+        <v>1.075197364871359</v>
       </c>
       <c r="K21">
-        <v>1.053052522637155</v>
+        <v>1.074534853903433</v>
       </c>
       <c r="L21">
-        <v>1.047585545225604</v>
+        <v>1.07668136744565</v>
       </c>
       <c r="M21">
-        <v>1.055883257034255</v>
+        <v>1.086587117895177</v>
       </c>
       <c r="N21">
-        <v>1.050557668891166</v>
+        <v>1.076724268456338</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.015296583961269</v>
+        <v>1.067954525396806</v>
       </c>
       <c r="D22">
-        <v>1.034762363275887</v>
+        <v>1.070372357945461</v>
       </c>
       <c r="E22">
-        <v>1.028872468543709</v>
+        <v>1.072448710502291</v>
       </c>
       <c r="F22">
-        <v>1.037104761342266</v>
+        <v>1.082343788508294</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057524738253578</v>
+        <v>1.058820305432354</v>
       </c>
       <c r="J22">
-        <v>1.045379773731739</v>
+        <v>1.074553074660535</v>
       </c>
       <c r="K22">
-        <v>1.04967525525393</v>
+        <v>1.073953350270393</v>
       </c>
       <c r="L22">
-        <v>1.043892864012453</v>
+        <v>1.07602225347877</v>
       </c>
       <c r="M22">
-        <v>1.051975340499503</v>
+        <v>1.085882263615009</v>
       </c>
       <c r="N22">
-        <v>1.046864332917175</v>
+        <v>1.076079063279513</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.01801668478377</v>
+        <v>1.068423722225085</v>
       </c>
       <c r="D23">
-        <v>1.036898399461478</v>
+        <v>1.070747824069815</v>
       </c>
       <c r="E23">
-        <v>1.031182508997679</v>
+        <v>1.072865287770776</v>
       </c>
       <c r="F23">
-        <v>1.039527035609214</v>
+        <v>1.0827839642472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.058704770843824</v>
+        <v>1.058990094645563</v>
       </c>
       <c r="J23">
-        <v>1.047346164180018</v>
+        <v>1.074894714857349</v>
       </c>
       <c r="K23">
-        <v>1.051475963930809</v>
+        <v>1.07426171388102</v>
       </c>
       <c r="L23">
-        <v>1.045861436402994</v>
+        <v>1.076371735109154</v>
       </c>
       <c r="M23">
-        <v>1.054058469780736</v>
+        <v>1.086255975847904</v>
       </c>
       <c r="N23">
-        <v>1.048833515865438</v>
+        <v>1.076421188644593</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.02839894209132</v>
+        <v>1.070270110465313</v>
       </c>
       <c r="D24">
-        <v>1.045063388210522</v>
+        <v>1.072225226464487</v>
       </c>
       <c r="E24">
-        <v>1.040016129103497</v>
+        <v>1.074505034094148</v>
       </c>
       <c r="F24">
-        <v>1.048792218913369</v>
+        <v>1.084516971934784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.063187635094911</v>
+        <v>1.059655253745611</v>
       </c>
       <c r="J24">
-        <v>1.054845983107721</v>
+        <v>1.076237739870507</v>
       </c>
       <c r="K24">
-        <v>1.058342802465468</v>
+        <v>1.075473558364169</v>
       </c>
       <c r="L24">
-        <v>1.053375160479642</v>
+        <v>1.077746005861364</v>
       </c>
       <c r="M24">
-        <v>1.062013442337725</v>
+        <v>1.087726021859085</v>
       </c>
       <c r="N24">
-        <v>1.05634398539626</v>
+        <v>1.077766120907318</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.039838279701088</v>
+        <v>1.072411189654481</v>
       </c>
       <c r="D25">
-        <v>1.054080247693534</v>
+        <v>1.073938120586088</v>
       </c>
       <c r="E25">
-        <v>1.049779054571914</v>
+        <v>1.076407350903864</v>
       </c>
       <c r="F25">
-        <v>1.059037032648377</v>
+        <v>1.086528253841876</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068081726465213</v>
+        <v>1.060420364215353</v>
       </c>
       <c r="J25">
-        <v>1.063095484118213</v>
+        <v>1.077792204683998</v>
       </c>
       <c r="K25">
-        <v>1.065893281150322</v>
+        <v>1.076875426497012</v>
       </c>
       <c r="L25">
-        <v>1.061650811970582</v>
+        <v>1.079337502846399</v>
       </c>
       <c r="M25">
-        <v>1.070783134914596</v>
+        <v>1.089429451959823</v>
       </c>
       <c r="N25">
-        <v>1.064605201644417</v>
+        <v>1.079322793239143</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_151/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.074117753921424</v>
+        <v>1.04853042056588</v>
       </c>
       <c r="D2">
-        <v>1.075303122240978</v>
+        <v>1.060944674439133</v>
       </c>
       <c r="E2">
-        <v>1.077924277549771</v>
+        <v>1.057218091867587</v>
       </c>
       <c r="F2">
-        <v>1.088132690176628</v>
+        <v>1.066847269225662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061025189854597</v>
+        <v>1.071762400993944</v>
       </c>
       <c r="J2">
-        <v>1.079028844005987</v>
+        <v>1.069350524095705</v>
       </c>
       <c r="K2">
-        <v>1.077990048447023</v>
+        <v>1.071615556231289</v>
       </c>
       <c r="L2">
-        <v>1.080604299558871</v>
+        <v>1.067933942181706</v>
       </c>
       <c r="M2">
-        <v>1.090786165081943</v>
+        <v>1.077447721283707</v>
       </c>
       <c r="N2">
-        <v>1.080561188730813</v>
+        <v>1.07086912449614</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.075356250915761</v>
+        <v>1.054616827167723</v>
       </c>
       <c r="D3">
-        <v>1.076293566355411</v>
+        <v>1.065757293640184</v>
       </c>
       <c r="E3">
-        <v>1.079025526235562</v>
+        <v>1.062437640626976</v>
       </c>
       <c r="F3">
-        <v>1.089297827551951</v>
+        <v>1.072329628770792</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061461218559055</v>
+        <v>1.074316767173416</v>
       </c>
       <c r="J3">
-        <v>1.079924930762111</v>
+        <v>1.073721751250774</v>
       </c>
       <c r="K3">
-        <v>1.078797357228423</v>
+        <v>1.075612644495036</v>
       </c>
       <c r="L3">
-        <v>1.081522641821931</v>
+        <v>1.07232940697106</v>
       </c>
       <c r="M3">
-        <v>1.091770165641073</v>
+        <v>1.082113698641956</v>
       </c>
       <c r="N3">
-        <v>1.081458548032914</v>
+        <v>1.075246559295157</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.076157370759789</v>
+        <v>1.058458649345157</v>
       </c>
       <c r="D4">
-        <v>1.076934149521629</v>
+        <v>1.068797417490975</v>
       </c>
       <c r="E4">
-        <v>1.079738037495748</v>
+        <v>1.065736779253466</v>
       </c>
       <c r="F4">
-        <v>1.090051840923812</v>
+        <v>1.075795988885959</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061741916479581</v>
+        <v>1.07591823647924</v>
       </c>
       <c r="J4">
-        <v>1.080503925560297</v>
+        <v>1.076476618790249</v>
       </c>
       <c r="K4">
-        <v>1.079318820725571</v>
+        <v>1.078130801219478</v>
       </c>
       <c r="L4">
-        <v>1.082116202893224</v>
+        <v>1.075101634388887</v>
       </c>
       <c r="M4">
-        <v>1.092406383857647</v>
+        <v>1.085058227932667</v>
       </c>
       <c r="N4">
-        <v>1.082038365070125</v>
+        <v>1.078005339062525</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.076494098824472</v>
+        <v>1.060051690045555</v>
       </c>
       <c r="D5">
-        <v>1.077203379757478</v>
+        <v>1.070058525329417</v>
       </c>
       <c r="E5">
-        <v>1.080037561626271</v>
+        <v>1.067105812489146</v>
       </c>
       <c r="F5">
-        <v>1.090368851336053</v>
+        <v>1.077234680830048</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061859577408084</v>
+        <v>1.076579646209416</v>
       </c>
       <c r="J5">
-        <v>1.080747136733662</v>
+        <v>1.07761786910406</v>
       </c>
       <c r="K5">
-        <v>1.079537824943205</v>
+        <v>1.079173759180822</v>
       </c>
       <c r="L5">
-        <v>1.082365577272592</v>
+        <v>1.076250570537777</v>
       </c>
       <c r="M5">
-        <v>1.09267373244588</v>
+        <v>1.086278978928556</v>
       </c>
       <c r="N5">
-        <v>1.082281921631253</v>
+        <v>1.079148210082685</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.076550633329947</v>
+        <v>1.060317903852044</v>
       </c>
       <c r="D6">
-        <v>1.077248580568317</v>
+        <v>1.070269297163483</v>
       </c>
       <c r="E6">
-        <v>1.08008785216629</v>
+        <v>1.067334650705436</v>
       </c>
       <c r="F6">
-        <v>1.090422080175919</v>
+        <v>1.077475178494385</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061879313015596</v>
+        <v>1.076690017638303</v>
       </c>
       <c r="J6">
-        <v>1.080787961371102</v>
+        <v>1.077808519515768</v>
       </c>
       <c r="K6">
-        <v>1.079574583900776</v>
+        <v>1.079347975583669</v>
       </c>
       <c r="L6">
-        <v>1.082407439056352</v>
+        <v>1.076442533797836</v>
       </c>
       <c r="M6">
-        <v>1.092718614591351</v>
+        <v>1.086482964776659</v>
       </c>
       <c r="N6">
-        <v>1.08232280424436</v>
+        <v>1.079339131239846</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.076161870380542</v>
+        <v>1.058480020994297</v>
       </c>
       <c r="D7">
-        <v>1.076937747266675</v>
+        <v>1.068814334164198</v>
       </c>
       <c r="E7">
-        <v>1.07974203981162</v>
+        <v>1.065755141738942</v>
       </c>
       <c r="F7">
-        <v>1.090056076739746</v>
+        <v>1.075815284626217</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06174349002336</v>
+        <v>1.07592712024615</v>
       </c>
       <c r="J7">
-        <v>1.080507176137293</v>
+        <v>1.076491933695633</v>
       </c>
       <c r="K7">
-        <v>1.079321747930014</v>
+        <v>1.078144798026554</v>
       </c>
       <c r="L7">
-        <v>1.082119535667981</v>
+        <v>1.075117050486366</v>
       </c>
       <c r="M7">
-        <v>1.092409956642984</v>
+        <v>1.085074606018982</v>
       </c>
       <c r="N7">
-        <v>1.082041620263313</v>
+        <v>1.078020675716832</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.074536367025702</v>
+        <v>1.050607976144504</v>
       </c>
       <c r="D8">
-        <v>1.075637910264264</v>
+        <v>1.062586900845144</v>
       </c>
       <c r="E8">
-        <v>1.078296464986147</v>
+        <v>1.058998771366157</v>
       </c>
       <c r="F8">
-        <v>1.088526435608233</v>
+        <v>1.068717377078477</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061172846750539</v>
+        <v>1.072636580164215</v>
       </c>
       <c r="J8">
-        <v>1.079331853999309</v>
+        <v>1.070843494167689</v>
       </c>
       <c r="K8">
-        <v>1.078263073195009</v>
+        <v>1.072980927770012</v>
       </c>
       <c r="L8">
-        <v>1.08091479660095</v>
+        <v>1.069434747770911</v>
       </c>
       <c r="M8">
-        <v>1.091118816076781</v>
+        <v>1.079040536255872</v>
       </c>
       <c r="N8">
-        <v>1.080864629033082</v>
+        <v>1.072364214756873</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.071669858693972</v>
+        <v>1.035946996424759</v>
       </c>
       <c r="D9">
-        <v>1.073345085876739</v>
+        <v>1.051010729163914</v>
       </c>
       <c r="E9">
-        <v>1.075748584162104</v>
+        <v>1.04645454105426</v>
       </c>
       <c r="F9">
-        <v>1.085831656811966</v>
+        <v>1.055547793554326</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060156226598859</v>
+        <v>1.066422833196488</v>
       </c>
       <c r="J9">
-        <v>1.077254348583314</v>
+        <v>1.060291248383695</v>
       </c>
       <c r="K9">
-        <v>1.076390465776289</v>
+        <v>1.063327063794265</v>
       </c>
       <c r="L9">
-        <v>1.078786725230455</v>
+        <v>1.058836349011036</v>
       </c>
       <c r="M9">
-        <v>1.08883980994373</v>
+        <v>1.067799639725953</v>
       </c>
       <c r="N9">
-        <v>1.078784173321103</v>
+        <v>1.061796983573505</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069757267812235</v>
+        <v>1.025565228483165</v>
       </c>
       <c r="D10">
-        <v>1.071814894170073</v>
+        <v>1.042833014100372</v>
       </c>
       <c r="E10">
-        <v>1.074049518608715</v>
+        <v>1.037602517362906</v>
       </c>
       <c r="F10">
-        <v>1.084035488413407</v>
+        <v>1.046260298566752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059470989369555</v>
+        <v>1.061967633244901</v>
       </c>
       <c r="J10">
-        <v>1.075864936357153</v>
+        <v>1.052800003907263</v>
       </c>
       <c r="K10">
-        <v>1.075137228270776</v>
+        <v>1.056469698415132</v>
       </c>
       <c r="L10">
-        <v>1.077364460854618</v>
+        <v>1.051324489439754</v>
       </c>
       <c r="M10">
-        <v>1.087317806349881</v>
+        <v>1.059841691280442</v>
       </c>
       <c r="N10">
-        <v>1.077392787970213</v>
+        <v>1.05429510067066</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.068928689085396</v>
+        <v>1.020906304990188</v>
       </c>
       <c r="D11">
-        <v>1.071151899492413</v>
+        <v>1.039169018243165</v>
       </c>
       <c r="E11">
-        <v>1.073313672547751</v>
+        <v>1.033638489438408</v>
       </c>
       <c r="F11">
-        <v>1.083257791717844</v>
+        <v>1.042102613693609</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059172486978762</v>
+        <v>1.059955939501705</v>
       </c>
       <c r="J11">
-        <v>1.075262241312739</v>
+        <v>1.049434497921871</v>
       </c>
       <c r="K11">
-        <v>1.074593400700009</v>
+        <v>1.053388228766911</v>
       </c>
       <c r="L11">
-        <v>1.076747745038367</v>
+        <v>1.047952742056024</v>
       </c>
       <c r="M11">
-        <v>1.086658111817526</v>
+        <v>1.056271938882051</v>
       </c>
       <c r="N11">
-        <v>1.076789237029707</v>
+        <v>1.050924815280739</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.06862085315885</v>
+        <v>1.019149363346881</v>
       </c>
       <c r="D12">
-        <v>1.070905570499332</v>
+        <v>1.037788262995635</v>
       </c>
       <c r="E12">
-        <v>1.073040323915549</v>
+        <v>1.032144966666133</v>
       </c>
       <c r="F12">
-        <v>1.082968927212298</v>
+        <v>1.040536327444673</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059061339978127</v>
+        <v>1.059195508537218</v>
       </c>
       <c r="J12">
-        <v>1.075038211033826</v>
+        <v>1.048164831256299</v>
       </c>
       <c r="K12">
-        <v>1.074391222086414</v>
+        <v>1.052225623337885</v>
       </c>
       <c r="L12">
-        <v>1.076518537615505</v>
+        <v>1.046681187492557</v>
       </c>
       <c r="M12">
-        <v>1.086412971568899</v>
+        <v>1.054926048788524</v>
       </c>
       <c r="N12">
-        <v>1.0765648886021</v>
+        <v>1.04965334554287</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.068686887989428</v>
+        <v>1.019527459913425</v>
       </c>
       <c r="D13">
-        <v>1.070958411789515</v>
+        <v>1.038085357296467</v>
       </c>
       <c r="E13">
-        <v>1.073098959176802</v>
+        <v>1.032466311746779</v>
       </c>
       <c r="F13">
-        <v>1.083030889355448</v>
+        <v>1.040873319242584</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059085193617219</v>
+        <v>1.059359234406232</v>
       </c>
       <c r="J13">
-        <v>1.075086273670011</v>
+        <v>1.04843808641047</v>
       </c>
       <c r="K13">
-        <v>1.07443459811091</v>
+        <v>1.052475840939272</v>
       </c>
       <c r="L13">
-        <v>1.076567709371776</v>
+        <v>1.046954827659418</v>
       </c>
       <c r="M13">
-        <v>1.086465559550569</v>
+        <v>1.055215670840771</v>
       </c>
       <c r="N13">
-        <v>1.076613019492741</v>
+        <v>1.049926988750701</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0689032446109</v>
+        <v>1.020761625677727</v>
       </c>
       <c r="D14">
-        <v>1.071131539159487</v>
+        <v>1.039055296168319</v>
       </c>
       <c r="E14">
-        <v>1.073291077936202</v>
+        <v>1.033515473628357</v>
       </c>
       <c r="F14">
-        <v>1.08323391396169</v>
+        <v>1.041973600576286</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.059163305044967</v>
+        <v>1.059893356147529</v>
       </c>
       <c r="J14">
-        <v>1.075243726224833</v>
+        <v>1.04932995387962</v>
       </c>
       <c r="K14">
-        <v>1.074576692168569</v>
+        <v>1.05329250192533</v>
       </c>
       <c r="L14">
-        <v>1.076728801377441</v>
+        <v>1.047848033010887</v>
       </c>
       <c r="M14">
-        <v>1.086637850504167</v>
+        <v>1.056161101671366</v>
       </c>
       <c r="N14">
-        <v>1.076770695648251</v>
+        <v>1.050820122773957</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.069036540387281</v>
+        <v>1.021518478287876</v>
       </c>
       <c r="D15">
-        <v>1.071238200222387</v>
+        <v>1.039650244757596</v>
       </c>
       <c r="E15">
-        <v>1.073409445593782</v>
+        <v>1.034159055363736</v>
       </c>
       <c r="F15">
-        <v>1.083359004954217</v>
+        <v>1.042648566566621</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059211396277241</v>
+        <v>1.060220672219149</v>
       </c>
       <c r="J15">
-        <v>1.075340716356384</v>
+        <v>1.049876829645563</v>
       </c>
       <c r="K15">
-        <v>1.074664217531003</v>
+        <v>1.053793250699357</v>
       </c>
       <c r="L15">
-        <v>1.076828037977877</v>
+        <v>1.048395790990958</v>
       </c>
       <c r="M15">
-        <v>1.086743991303972</v>
+        <v>1.056740931242706</v>
       </c>
       <c r="N15">
-        <v>1.076867823516914</v>
+        <v>1.051367775166216</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.069812248898844</v>
+        <v>1.025870827209984</v>
       </c>
       <c r="D16">
-        <v>1.071858886151214</v>
+        <v>1.043073481474367</v>
       </c>
       <c r="E16">
-        <v>1.074098351205928</v>
+        <v>1.037862717871844</v>
       </c>
       <c r="F16">
-        <v>1.084087102613918</v>
+        <v>1.046533238678023</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059490762190796</v>
+        <v>1.062099337151311</v>
       </c>
       <c r="J16">
-        <v>1.075904912546291</v>
+        <v>1.053020690161236</v>
       </c>
       <c r="K16">
-        <v>1.075173295595514</v>
+        <v>1.05667174562522</v>
       </c>
       <c r="L16">
-        <v>1.077405371870239</v>
+        <v>1.051545648721089</v>
       </c>
       <c r="M16">
-        <v>1.087361574123501</v>
+        <v>1.060075884443779</v>
       </c>
       <c r="N16">
-        <v>1.077432820930125</v>
+        <v>1.054516100324426</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.070298717570813</v>
+        <v>1.028555911063</v>
       </c>
       <c r="D17">
-        <v>1.072248114847942</v>
+        <v>1.045186975267911</v>
       </c>
       <c r="E17">
-        <v>1.074530444965653</v>
+        <v>1.040149883520617</v>
       </c>
       <c r="F17">
-        <v>1.084543832817319</v>
+        <v>1.048932538661923</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059665521087581</v>
+        <v>1.063255132265024</v>
       </c>
       <c r="J17">
-        <v>1.076258530144972</v>
+        <v>1.054959291823075</v>
       </c>
       <c r="K17">
-        <v>1.075492313235667</v>
+        <v>1.058446532210527</v>
       </c>
       <c r="L17">
-        <v>1.077767285191132</v>
+        <v>1.053488749245205</v>
       </c>
       <c r="M17">
-        <v>1.087748790480335</v>
+        <v>1.062133752743605</v>
       </c>
       <c r="N17">
-        <v>1.077786940706356</v>
+        <v>1.056457455022986</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.07058242672819</v>
+        <v>1.030106428212927</v>
       </c>
       <c r="D18">
-        <v>1.07247510574791</v>
+        <v>1.046407968087942</v>
       </c>
       <c r="E18">
-        <v>1.074782464604428</v>
+        <v>1.041471407452204</v>
       </c>
       <c r="F18">
-        <v>1.084810241347708</v>
+        <v>1.050318981777634</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059767282338338</v>
+        <v>1.063921379401519</v>
       </c>
       <c r="J18">
-        <v>1.076464686146669</v>
+        <v>1.056078390952897</v>
       </c>
       <c r="K18">
-        <v>1.0756782782833</v>
+        <v>1.05947099464451</v>
       </c>
       <c r="L18">
-        <v>1.077978299665804</v>
+        <v>1.054610729566176</v>
       </c>
       <c r="M18">
-        <v>1.087974583956989</v>
+        <v>1.06332221194725</v>
       </c>
       <c r="N18">
-        <v>1.077993389473222</v>
+        <v>1.057578143401934</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.070679157550191</v>
+        <v>1.030632513465811</v>
       </c>
       <c r="D19">
-        <v>1.072552497101995</v>
+        <v>1.046822335958821</v>
       </c>
       <c r="E19">
-        <v>1.074868394576199</v>
+        <v>1.04191992668396</v>
       </c>
       <c r="F19">
-        <v>1.084901080762337</v>
+        <v>1.050789556071494</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059801951038621</v>
+        <v>1.06414723392059</v>
       </c>
       <c r="J19">
-        <v>1.076534962568546</v>
+        <v>1.056458034845695</v>
       </c>
       <c r="K19">
-        <v>1.075741668512472</v>
+        <v>1.059818521401939</v>
       </c>
       <c r="L19">
-        <v>1.07805023604353</v>
+        <v>1.054991398706697</v>
       </c>
       <c r="M19">
-        <v>1.088051563014097</v>
+        <v>1.063725471821797</v>
       </c>
       <c r="N19">
-        <v>1.07806376569568</v>
+        <v>1.057958326432606</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.07024652822218</v>
+        <v>1.028269458118457</v>
       </c>
       <c r="D20">
-        <v>1.072206358401008</v>
+        <v>1.044961444099771</v>
       </c>
       <c r="E20">
-        <v>1.074484086787677</v>
+        <v>1.039905799299263</v>
       </c>
       <c r="F20">
-        <v>1.084494829430682</v>
+        <v>1.04867647429908</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059646788978177</v>
+        <v>1.063131949909727</v>
       </c>
       <c r="J20">
-        <v>1.07622060100682</v>
+        <v>1.054752512520138</v>
       </c>
       <c r="K20">
-        <v>1.075458097314319</v>
+        <v>1.05825723335465</v>
       </c>
       <c r="L20">
-        <v>1.077728463960315</v>
+        <v>1.053281460480717</v>
       </c>
       <c r="M20">
-        <v>1.087707252387217</v>
+        <v>1.061914198809476</v>
       </c>
       <c r="N20">
-        <v>1.077748957704478</v>
+        <v>1.056250382069722</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.068839534791209</v>
+        <v>1.020398939343142</v>
       </c>
       <c r="D21">
-        <v>1.07108055922152</v>
+        <v>1.038770230599271</v>
       </c>
       <c r="E21">
-        <v>1.073234504388594</v>
+        <v>1.033207116317496</v>
       </c>
       <c r="F21">
-        <v>1.083174128105247</v>
+        <v>1.041650213346176</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05914031063535</v>
+        <v>1.059736441709264</v>
       </c>
       <c r="J21">
-        <v>1.075197364871359</v>
+        <v>1.049067872182897</v>
       </c>
       <c r="K21">
-        <v>1.074534853903433</v>
+        <v>1.053052522637153</v>
       </c>
       <c r="L21">
-        <v>1.07668136744565</v>
+        <v>1.047585545225603</v>
       </c>
       <c r="M21">
-        <v>1.086587117895177</v>
+        <v>1.055883257034254</v>
       </c>
       <c r="N21">
-        <v>1.076724268456338</v>
+        <v>1.050557668891164</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.067954525396806</v>
+        <v>1.015296583961272</v>
       </c>
       <c r="D22">
-        <v>1.070372357945461</v>
+        <v>1.03476236327589</v>
       </c>
       <c r="E22">
-        <v>1.072448710502291</v>
+        <v>1.028872468543711</v>
       </c>
       <c r="F22">
-        <v>1.082343788508294</v>
+        <v>1.037104761342269</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.058820305432354</v>
+        <v>1.05752473825358</v>
       </c>
       <c r="J22">
-        <v>1.074553074660535</v>
+        <v>1.045379773731743</v>
       </c>
       <c r="K22">
-        <v>1.073953350270393</v>
+        <v>1.049675255253933</v>
       </c>
       <c r="L22">
-        <v>1.07602225347877</v>
+        <v>1.043892864012456</v>
       </c>
       <c r="M22">
-        <v>1.085882263615009</v>
+        <v>1.051975340499507</v>
       </c>
       <c r="N22">
-        <v>1.076079063279513</v>
+        <v>1.046864332917177</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.068423722225085</v>
+        <v>1.018016684783769</v>
       </c>
       <c r="D23">
-        <v>1.070747824069815</v>
+        <v>1.036898399461478</v>
       </c>
       <c r="E23">
-        <v>1.072865287770776</v>
+        <v>1.031182508997679</v>
       </c>
       <c r="F23">
-        <v>1.0827839642472</v>
+        <v>1.039527035609214</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.058990094645563</v>
+        <v>1.058704770843824</v>
       </c>
       <c r="J23">
-        <v>1.074894714857349</v>
+        <v>1.047346164180018</v>
       </c>
       <c r="K23">
-        <v>1.07426171388102</v>
+        <v>1.051475963930808</v>
       </c>
       <c r="L23">
-        <v>1.076371735109154</v>
+        <v>1.045861436402994</v>
       </c>
       <c r="M23">
-        <v>1.086255975847904</v>
+        <v>1.054058469780736</v>
       </c>
       <c r="N23">
-        <v>1.076421188644593</v>
+        <v>1.048833515865438</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.070270110465313</v>
+        <v>1.028398942091321</v>
       </c>
       <c r="D24">
-        <v>1.072225226464487</v>
+        <v>1.045063388210523</v>
       </c>
       <c r="E24">
-        <v>1.074505034094148</v>
+        <v>1.040016129103497</v>
       </c>
       <c r="F24">
-        <v>1.084516971934784</v>
+        <v>1.048792218913369</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059655253745611</v>
+        <v>1.063187635094912</v>
       </c>
       <c r="J24">
-        <v>1.076237739870507</v>
+        <v>1.054845983107722</v>
       </c>
       <c r="K24">
-        <v>1.075473558364169</v>
+        <v>1.058342802465468</v>
       </c>
       <c r="L24">
-        <v>1.077746005861364</v>
+        <v>1.053375160479643</v>
       </c>
       <c r="M24">
-        <v>1.087726021859085</v>
+        <v>1.062013442337725</v>
       </c>
       <c r="N24">
-        <v>1.077766120907318</v>
+        <v>1.05634398539626</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.072411189654481</v>
+        <v>1.039838279701088</v>
       </c>
       <c r="D25">
-        <v>1.073938120586088</v>
+        <v>1.054080247693534</v>
       </c>
       <c r="E25">
-        <v>1.076407350903864</v>
+        <v>1.049779054571914</v>
       </c>
       <c r="F25">
-        <v>1.086528253841876</v>
+        <v>1.059037032648377</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060420364215353</v>
+        <v>1.068081726465213</v>
       </c>
       <c r="J25">
-        <v>1.077792204683998</v>
+        <v>1.063095484118213</v>
       </c>
       <c r="K25">
-        <v>1.076875426497012</v>
+        <v>1.065893281150322</v>
       </c>
       <c r="L25">
-        <v>1.079337502846399</v>
+        <v>1.061650811970583</v>
       </c>
       <c r="M25">
-        <v>1.089429451959823</v>
+        <v>1.070783134914596</v>
       </c>
       <c r="N25">
-        <v>1.079322793239143</v>
+        <v>1.064605201644417</v>
       </c>
     </row>
   </sheetData>
